--- a/data/99. analyzes/excel/2017_top_5_by_canton_hco.xlsx
+++ b/data/99. analyzes/excel/2017_top_5_by_canton_hco.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="323">
   <si>
     <t>KANTON</t>
   </si>
@@ -68,7 +68,7 @@
     <t>aarau</t>
   </si>
   <si>
-    <t>Tellstrasse 25</t>
+    <t>Tellstrasse</t>
   </si>
   <si>
     <t>hco</t>
@@ -83,6 +83,15 @@
     <t>Rütistrasse 3A</t>
   </si>
   <si>
+    <t>Echo Kurs Luzern</t>
+  </si>
+  <si>
+    <t>othmarsingen</t>
+  </si>
+  <si>
+    <t>Bahnhofstrasse 8</t>
+  </si>
+  <si>
     <t>Kantonspital Baden AG</t>
   </si>
   <si>
@@ -98,15 +107,6 @@
     <t>Weissensteinstrasse 2</t>
   </si>
   <si>
-    <t>Organizers Schweiz GmbH</t>
-  </si>
-  <si>
-    <t>magden</t>
-  </si>
-  <si>
-    <t>Obere Egg 2</t>
-  </si>
-  <si>
     <t>AR</t>
   </si>
   <si>
@@ -170,7 +170,7 @@
     <t>Dalmazirain 11</t>
   </si>
   <si>
-    <t>SGAIM</t>
+    <t>SGAIM - Schweizerische Gesellschaft für Allgemeine Innere Medizin</t>
   </si>
   <si>
     <t>Monbijoustrasse 43</t>
@@ -194,16 +194,16 @@
     <t>Bodenackerstrasse 17</t>
   </si>
   <si>
-    <t>Kantonsspital Baselland</t>
+    <t>Kantonsspital Basel-Land</t>
   </si>
   <si>
     <t>liestal</t>
   </si>
   <si>
-    <t>Mühlemattstrasse 26</t>
-  </si>
-  <si>
-    <t>Toppharm Ag</t>
+    <t>Rheinstrasse 26</t>
+  </si>
+  <si>
+    <t>Toppharm AG</t>
   </si>
   <si>
     <t>münchenstein</t>
@@ -212,16 +212,13 @@
     <t>Grabenackerstrasse 15</t>
   </si>
   <si>
-    <t>USGG-UVSS Union Schweizerischer Gesellschaften für Gefässkrankheiten</t>
+    <t>Union Schweizerischer Gesellschaften für Gefässkrankheiten</t>
   </si>
   <si>
     <t>bruderholz</t>
   </si>
   <si>
-    <t>Bruderholz</t>
-  </si>
-  <si>
-    <t>Roche Pharma Schweiz Ag</t>
+    <t>Roche Pharma Schweiz AG</t>
   </si>
   <si>
     <t>reinach bl</t>
@@ -233,13 +230,19 @@
     <t>BS</t>
   </si>
   <si>
-    <t>Basel Universitätsspital</t>
+    <t>Basel University Hospital</t>
   </si>
   <si>
     <t>basel</t>
   </si>
   <si>
-    <t>Petersgraben 4</t>
+    <t>Spitalstrasse 21</t>
+  </si>
+  <si>
+    <t>ESCMID European Society of Clinical Microbiology and Infectious Diseases</t>
+  </si>
+  <si>
+    <t>Aeschenvorstadt 57</t>
   </si>
   <si>
     <t>ESO-European Stroke Organisation</t>
@@ -248,12 +251,6 @@
     <t>Peter Merian-Strasse 80</t>
   </si>
   <si>
-    <t>ESCMID European Society of Clinical Microbiology and Infectious Diseases</t>
-  </si>
-  <si>
-    <t>Aeschenvorstadt 57</t>
-  </si>
-  <si>
     <t>ECTRIMS European Committee for Treatment and Research in multiplesclerosis</t>
   </si>
   <si>
@@ -278,7 +275,7 @@
     <t>FR</t>
   </si>
   <si>
-    <t>Collège Médecine Premier Recours</t>
+    <t>CMPR - Collège de Médecine de Premier Recours</t>
   </si>
   <si>
     <t>fribourg</t>
@@ -308,7 +305,7 @@
     <t>Chemin Des Pensionnats</t>
   </si>
   <si>
-    <t>Société Suisse de Pédiatrie</t>
+    <t>Schweizerische Gesellschaft für Pädiatrie</t>
   </si>
   <si>
     <t>GE</t>
@@ -341,10 +338,10 @@
     <t>Rue Gabrielle-Perret-Gentil 4</t>
   </si>
   <si>
-    <t>European Society of Gynaecological Oncology (ESGO) c/o Kenes International SA</t>
-  </si>
-  <si>
-    <t>Rue François-Versonn ex 7</t>
+    <t>European Society of Gynaecological Oncology (ESGO)</t>
+  </si>
+  <si>
+    <t>Rue Chantepoulet 1-3</t>
   </si>
   <si>
     <t>GL</t>
@@ -386,7 +383,7 @@
     <t>scuol</t>
   </si>
   <si>
-    <t>Bogn EngiadinaScuol</t>
+    <t>Bgon Engiadina</t>
   </si>
   <si>
     <t>Grisomed AG</t>
@@ -479,10 +476,10 @@
     <t>Luzernerstrasse 36</t>
   </si>
   <si>
-    <t>Herzzentrum Hirslanden Zentralschweiz</t>
-  </si>
-  <si>
-    <t>St. Annastrasse 32</t>
+    <t>Gastroenterologie St. Anna, Endoskopiezentrum</t>
+  </si>
+  <si>
+    <t>St. Anna-Strasse 32</t>
   </si>
   <si>
     <t>NE</t>
@@ -551,10 +548,7 @@
     <t>Bürgenstock 30</t>
   </si>
   <si>
-    <t>Bürgenstock Resort Medical Centre</t>
-  </si>
-  <si>
-    <t>obbürgen</t>
+    <t>Bürgenstock Klinik</t>
   </si>
   <si>
     <t>Medizinische Klinik</t>
@@ -581,10 +575,10 @@
     <t>st. gallen</t>
   </si>
   <si>
-    <t>Rorschacher Strasse 95</t>
-  </si>
-  <si>
-    <t>St. Gallen Oncology Conferences, c/o Tumor und Brustzentrum ZeTuP AG</t>
+    <t>Rorschacherstrasse 95</t>
+  </si>
+  <si>
+    <t>St. Gallen Oncology Conferences (SONK)</t>
   </si>
   <si>
     <t>Rorschacher Strasse 150</t>
@@ -653,33 +647,36 @@
     <t>Ausserfeldweg 1</t>
   </si>
   <si>
-    <t>GSMN Privatklinik Obach AG</t>
+    <t>Pallas Kliniken AG</t>
+  </si>
+  <si>
+    <t>olten</t>
+  </si>
+  <si>
+    <t>Louis Giroud-Strasse 20</t>
+  </si>
+  <si>
+    <t>Hareso - Hausärzte Region Solothurn AG Präsidentin: Dr. med. C. Rossi</t>
   </si>
   <si>
     <t>solothurn</t>
   </si>
   <si>
+    <t>Niklaus-Konrad-Str. 11</t>
+  </si>
+  <si>
+    <t>Solothurner Spitäler AG</t>
+  </si>
+  <si>
+    <t>Schöngrünstrasse 36a</t>
+  </si>
+  <si>
+    <t>Privatklinik Obach</t>
+  </si>
+  <si>
     <t>Leopoldstrasse 5</t>
   </si>
   <si>
-    <t>Solothurner Spitäler AG</t>
-  </si>
-  <si>
-    <t>Schöngrünstrasse 36a</t>
-  </si>
-  <si>
-    <t>Pallas Kliniken AG</t>
-  </si>
-  <si>
-    <t>olten</t>
-  </si>
-  <si>
-    <t>Hareso - Hausärzte Region Solothurn AG Präsidentin: Dr. med. C. Rossi</t>
-  </si>
-  <si>
-    <t>Niklaus-Konrad-Str. 11</t>
-  </si>
-  <si>
     <t>SZ</t>
   </si>
   <si>
@@ -731,7 +728,7 @@
     <t>TG</t>
   </si>
   <si>
-    <t>Kantonsspital Frauenfeld - Brustzentrum Thurgau</t>
+    <t>Kantonsspital Frauenfeld</t>
   </si>
   <si>
     <t>frauenfeld</t>
@@ -809,7 +806,7 @@
     <t>Viale Stefano Franscini 9</t>
   </si>
   <si>
-    <t>Neurocentro della Svizzera Italiana (NSI)</t>
+    <t>EOC - Ospedale Regionale di Lugano</t>
   </si>
   <si>
     <t>Via Tesserete 46</t>
@@ -881,7 +878,7 @@
     <t>crans-montana</t>
   </si>
   <si>
-    <t>Case Postale 299</t>
+    <t>. ATT. Mme Elvire Crettol</t>
   </si>
   <si>
     <t>Hopital du Valais, Hopital de Sion</t>
@@ -944,40 +941,34 @@
     <t>Hinterbergstrasse 56</t>
   </si>
   <si>
-    <t>Forte Echo GmbH</t>
+    <t>Forum für Medizinische Fortbildung</t>
   </si>
   <si>
     <t>baar</t>
   </si>
   <si>
-    <t>c/o PRV Provides Treuhandgesellschalt AG, Dorfstrasse 38</t>
-  </si>
-  <si>
-    <t>Forum für Medizinische Fortbildung</t>
-  </si>
-  <si>
     <t>Oberneuhofstrasse 6</t>
   </si>
   <si>
+    <t>KHM</t>
+  </si>
+  <si>
     <t>ZH</t>
   </si>
   <si>
-    <t>Universität Zürich</t>
+    <t>UniversitätsSpital Zürich</t>
   </si>
   <si>
     <t>zürich</t>
   </si>
   <si>
-    <t>Rämistrasse 71</t>
-  </si>
-  <si>
-    <t>EULAR - Europäische Rheumaliga</t>
-  </si>
-  <si>
-    <t>kilchberg zh</t>
-  </si>
-  <si>
-    <t>Seestrasse 240</t>
+    <t>Rämistrasse 100</t>
+  </si>
+  <si>
+    <t>Stiftung für Herz-/Kreislaufforschung</t>
+  </si>
+  <si>
+    <t>Moussonstrasse 4</t>
   </si>
   <si>
     <t>EAACI</t>
@@ -1431,7 +1422,7 @@
         <v>31648.35</v>
       </c>
       <c r="K2" t="n">
-        <v>74644.64999999999</v>
+        <v>74644.65000000001</v>
       </c>
       <c r="L2" t="n">
         <v>90691.28</v>
@@ -1440,7 +1431,7 @@
         <v>1190.82</v>
       </c>
       <c r="N2" t="n">
-        <v>693220.5299999999</v>
+        <v>693220.53</v>
       </c>
       <c r="O2" t="s">
         <v>16</v>
@@ -1506,40 +1497,40 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>81600</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>81600</v>
+      </c>
+      <c r="O4" t="s">
         <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2017</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6250</v>
-      </c>
-      <c r="I4" t="n">
-        <v>32120</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10299.47</v>
-      </c>
-      <c r="K4" t="n">
-        <v>17967.5</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12801.4</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>79438.37</v>
-      </c>
-      <c r="O4" t="s">
-        <v>20</v>
       </c>
       <c r="P4" t="s">
         <v>14</v>
@@ -1548,13 +1539,13 @@
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
         <v>26</v>
@@ -1566,28 +1557,28 @@
         <v>2017</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>6250</v>
       </c>
       <c r="I5" t="n">
-        <v>62100</v>
+        <v>32120</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>10299.47</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>17967.5</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>12801.4</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>62100</v>
+        <v>79438.37</v>
       </c>
       <c r="O5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="P5" t="s">
         <v>14</v>
@@ -1617,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>61724</v>
+        <v>62100</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1632,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>61724</v>
+        <v>62100</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>
@@ -1906,25 +1897,25 @@
         <v>2017</v>
       </c>
       <c r="H12" t="n">
-        <v>467633.82</v>
+        <v>457133.82</v>
       </c>
       <c r="I12" t="n">
-        <v>1586160.48</v>
+        <v>1615200.48</v>
       </c>
       <c r="J12" t="n">
-        <v>73039.27</v>
+        <v>73234.27</v>
       </c>
       <c r="K12" t="n">
-        <v>150105.3999999999</v>
+        <v>150290.6499999999</v>
       </c>
       <c r="L12" t="n">
-        <v>373515.91</v>
+        <v>390505.91</v>
       </c>
       <c r="M12" t="n">
-        <v>18417.44</v>
+        <v>23417.44</v>
       </c>
       <c r="N12" t="n">
-        <v>2668876.32</v>
+        <v>2709786.57</v>
       </c>
       <c r="O12" t="s">
         <v>45</v>
@@ -1954,10 +1945,10 @@
         <v>2017</v>
       </c>
       <c r="H13" t="n">
-        <v>365036</v>
+        <v>367036</v>
       </c>
       <c r="I13" t="n">
-        <v>528739</v>
+        <v>521739</v>
       </c>
       <c r="J13" t="n">
         <v>5483</v>
@@ -1972,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>909304.5</v>
+        <v>904304.5</v>
       </c>
       <c r="O13" t="s">
         <v>45</v>
@@ -2005,7 +1996,7 @@
         <v>105000</v>
       </c>
       <c r="I14" t="n">
-        <v>406701.4</v>
+        <v>421701.4</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -2020,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>564211.4</v>
+        <v>579211.4</v>
       </c>
       <c r="O14" t="s">
         <v>45</v>
@@ -2282,9 +2273,7 @@
       <c r="D20" t="s">
         <v>66</v>
       </c>
-      <c r="E20" t="s">
-        <v>67</v>
-      </c>
+      <c r="E20" t="s"/>
       <c r="F20" t="s">
         <v>18</v>
       </c>
@@ -2295,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>37893</v>
+        <v>23900</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2310,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>37893</v>
+        <v>23900</v>
       </c>
       <c r="O20" t="s">
         <v>66</v>
@@ -2322,16 +2311,16 @@
     <row r="21" spans="1:16">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
         <v>68</v>
       </c>
-      <c r="C21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>69</v>
-      </c>
-      <c r="E21" t="s">
-        <v>70</v>
       </c>
       <c r="F21" t="s">
         <v>18</v>
@@ -2361,7 +2350,7 @@
         <v>22000</v>
       </c>
       <c r="O21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P21" t="s">
         <v>55</v>
@@ -2369,20 +2358,20 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s">
         <v>72</v>
       </c>
-      <c r="C22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>73</v>
       </c>
-      <c r="E22" t="s">
-        <v>74</v>
-      </c>
       <c r="F22" t="s">
         <v>18</v>
       </c>
@@ -2390,47 +2379,47 @@
         <v>2017</v>
       </c>
       <c r="H22" t="n">
-        <v>636642.8</v>
+        <v>951594.8</v>
       </c>
       <c r="I22" t="n">
-        <v>1028467.04</v>
+        <v>1033787.04</v>
       </c>
       <c r="J22" t="n">
-        <v>25302.41</v>
+        <v>90302.41</v>
       </c>
       <c r="K22" t="n">
         <v>69483</v>
       </c>
       <c r="L22" t="n">
-        <v>410217.94</v>
+        <v>423517.94</v>
       </c>
       <c r="M22" t="n">
-        <v>37676.67000000001</v>
+        <v>38811.19</v>
       </c>
       <c r="N22" t="n">
-        <v>2207790.85</v>
+        <v>2607497.37</v>
       </c>
       <c r="O22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" t="s">
         <v>75</v>
       </c>
-      <c r="C23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" t="s">
-        <v>76</v>
-      </c>
       <c r="F23" t="s">
         <v>18</v>
       </c>
@@ -2438,13 +2427,13 @@
         <v>2017</v>
       </c>
       <c r="H23" t="n">
-        <v>840259.42</v>
+        <v>122020.56</v>
       </c>
       <c r="I23" t="n">
-        <v>299372.79</v>
+        <v>1001407.01</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>43406.01</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2456,29 +2445,29 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1139632.21</v>
+        <v>1166833.58</v>
       </c>
       <c r="O23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" t="s">
         <v>77</v>
       </c>
-      <c r="C24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" t="s">
-        <v>78</v>
-      </c>
       <c r="F24" t="s">
         <v>18</v>
       </c>
@@ -2486,13 +2475,13 @@
         <v>2017</v>
       </c>
       <c r="H24" t="n">
-        <v>88517.56</v>
+        <v>840259.42</v>
       </c>
       <c r="I24" t="n">
-        <v>808503.8100000001</v>
+        <v>299372.79</v>
       </c>
       <c r="J24" t="n">
-        <v>43406.01</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2504,28 +2493,28 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>940427.38</v>
+        <v>1139632.21</v>
       </c>
       <c r="O24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E25" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F25" t="s">
         <v>18</v>
@@ -2555,26 +2544,26 @@
         <v>666265.95</v>
       </c>
       <c r="O25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" t="s">
         <v>80</v>
       </c>
-      <c r="C26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" t="s">
-        <v>81</v>
-      </c>
       <c r="F26" t="s">
         <v>18</v>
       </c>
@@ -2582,10 +2571,10 @@
         <v>2017</v>
       </c>
       <c r="H26" t="n">
-        <v>446011.16</v>
+        <v>508011.16</v>
       </c>
       <c r="I26" t="n">
-        <v>61200</v>
+        <v>83746</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,30 +2589,30 @@
         <v>83</v>
       </c>
       <c r="N26" t="n">
-        <v>514721.81</v>
+        <v>599267.8100000001</v>
       </c>
       <c r="O26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" t="s">
         <v>83</v>
       </c>
-      <c r="C27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>84</v>
-      </c>
-      <c r="E27" t="s">
-        <v>85</v>
       </c>
       <c r="F27" t="s">
         <v>18</v>
@@ -2653,27 +2642,27 @@
         <v>1811.4</v>
       </c>
       <c r="O27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" t="s">
         <v>87</v>
       </c>
-      <c r="C28" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>88</v>
-      </c>
-      <c r="E28" t="s">
-        <v>89</v>
       </c>
       <c r="F28" t="s">
         <v>18</v>
@@ -2685,7 +2674,7 @@
         <v>8340</v>
       </c>
       <c r="I28" t="n">
-        <v>181596.8</v>
+        <v>196419.8</v>
       </c>
       <c r="J28" t="n">
         <v>2640</v>
@@ -2700,28 +2689,28 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>192576.8</v>
+        <v>207399.8</v>
       </c>
       <c r="O28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" t="s">
         <v>90</v>
-      </c>
-      <c r="C29" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E29" t="s">
-        <v>91</v>
       </c>
       <c r="F29" t="s">
         <v>18</v>
@@ -2751,73 +2740,73 @@
         <v>108854.59</v>
       </c>
       <c r="O29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" t="s">
         <v>92</v>
       </c>
-      <c r="C30" t="s">
+      <c r="E30" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H30" t="n">
+        <v>27000</v>
+      </c>
+      <c r="I30" t="n">
+        <v>21000</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>48000</v>
+      </c>
+      <c r="O30" t="s">
         <v>92</v>
       </c>
-      <c r="D30" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" t="s">
-        <v>94</v>
-      </c>
-      <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="n">
-        <v>2017</v>
-      </c>
-      <c r="H30" t="n">
-        <v>25000</v>
-      </c>
-      <c r="I30" t="n">
-        <v>20000</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>45000</v>
-      </c>
-      <c r="O30" t="s">
-        <v>93</v>
-      </c>
       <c r="P30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" t="s">
         <v>95</v>
-      </c>
-      <c r="C31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31" t="s">
-        <v>96</v>
       </c>
       <c r="F31" t="s">
         <v>18</v>
@@ -2847,25 +2836,25 @@
         <v>31050</v>
       </c>
       <c r="O31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" t="s">
         <v>88</v>
-      </c>
-      <c r="E32" t="s">
-        <v>89</v>
       </c>
       <c r="F32" t="s">
         <v>18</v>
@@ -2895,27 +2884,27 @@
         <v>24568</v>
       </c>
       <c r="O32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" t="s">
         <v>99</v>
       </c>
-      <c r="C33" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>100</v>
-      </c>
-      <c r="E33" t="s">
-        <v>101</v>
       </c>
       <c r="F33" t="s">
         <v>18</v>
@@ -2945,25 +2934,25 @@
         <v>4694351.12</v>
       </c>
       <c r="O33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" t="s">
         <v>102</v>
-      </c>
-      <c r="C34" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" t="s">
-        <v>100</v>
-      </c>
-      <c r="E34" t="s">
-        <v>103</v>
       </c>
       <c r="F34" t="s">
         <v>18</v>
@@ -2993,25 +2982,25 @@
         <v>2166822.77</v>
       </c>
       <c r="O34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="1" t="n"/>
       <c r="B35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" t="s">
         <v>104</v>
-      </c>
-      <c r="C35" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" t="s">
-        <v>105</v>
       </c>
       <c r="F35" t="s">
         <v>18</v>
@@ -3041,25 +3030,25 @@
         <v>1574402.03</v>
       </c>
       <c r="O35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="1" t="n"/>
       <c r="B36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" t="s">
         <v>106</v>
-      </c>
-      <c r="C36" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" t="s">
-        <v>100</v>
-      </c>
-      <c r="E36" t="s">
-        <v>107</v>
       </c>
       <c r="F36" t="s">
         <v>18</v>
@@ -3071,7 +3060,7 @@
         <v>500683.15</v>
       </c>
       <c r="I36" t="n">
-        <v>674823.35</v>
+        <v>684943.35</v>
       </c>
       <c r="J36" t="n">
         <v>57576.05</v>
@@ -3086,28 +3075,28 @@
         <v>2530.38</v>
       </c>
       <c r="N36" t="n">
-        <v>1362456.73</v>
+        <v>1372576.73</v>
       </c>
       <c r="O36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" t="s">
         <v>108</v>
-      </c>
-      <c r="C37" t="s">
-        <v>108</v>
-      </c>
-      <c r="D37" t="s">
-        <v>100</v>
-      </c>
-      <c r="E37" t="s">
-        <v>109</v>
       </c>
       <c r="F37" t="s">
         <v>18</v>
@@ -3119,7 +3108,7 @@
         <v>349833.47</v>
       </c>
       <c r="I37" t="n">
-        <v>195017.3</v>
+        <v>275728.92</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3134,30 +3123,30 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>544850.77</v>
+        <v>625562.39</v>
       </c>
       <c r="O37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" t="s">
         <v>111</v>
       </c>
-      <c r="C38" t="s">
-        <v>111</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>112</v>
-      </c>
-      <c r="E38" t="s">
-        <v>113</v>
       </c>
       <c r="F38" t="s">
         <v>18</v>
@@ -3187,27 +3176,27 @@
         <v>9506</v>
       </c>
       <c r="O38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" t="s">
         <v>115</v>
       </c>
-      <c r="C39" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>116</v>
-      </c>
-      <c r="E39" t="s">
-        <v>117</v>
       </c>
       <c r="F39" t="s">
         <v>18</v>
@@ -3225,7 +3214,7 @@
         <v>17841.12000000001</v>
       </c>
       <c r="K39" t="n">
-        <v>54123.17</v>
+        <v>54123.17000000001</v>
       </c>
       <c r="L39" t="n">
         <v>89382</v>
@@ -3237,25 +3226,25 @@
         <v>263315.93</v>
       </c>
       <c r="O39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="1" t="n"/>
       <c r="B40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" t="s">
         <v>118</v>
       </c>
-      <c r="C40" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>119</v>
-      </c>
-      <c r="E40" t="s">
-        <v>120</v>
       </c>
       <c r="F40" t="s">
         <v>18</v>
@@ -3285,25 +3274,25 @@
         <v>56757.4</v>
       </c>
       <c r="O40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="1" t="n"/>
       <c r="B41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" t="s">
         <v>121</v>
       </c>
-      <c r="C41" t="s">
-        <v>121</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>122</v>
-      </c>
-      <c r="E41" t="s">
-        <v>123</v>
       </c>
       <c r="F41" t="s">
         <v>18</v>
@@ -3333,25 +3322,25 @@
         <v>37500</v>
       </c>
       <c r="O41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" t="s">
         <v>124</v>
-      </c>
-      <c r="C42" t="s">
-        <v>124</v>
-      </c>
-      <c r="D42" t="s">
-        <v>116</v>
-      </c>
-      <c r="E42" t="s">
-        <v>125</v>
       </c>
       <c r="F42" t="s">
         <v>18</v>
@@ -3381,25 +3370,25 @@
         <v>27450</v>
       </c>
       <c r="O42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" t="s">
         <v>126</v>
-      </c>
-      <c r="C43" t="s">
-        <v>126</v>
-      </c>
-      <c r="D43" t="s">
-        <v>122</v>
-      </c>
-      <c r="E43" t="s">
-        <v>127</v>
       </c>
       <c r="F43" t="s">
         <v>18</v>
@@ -3429,27 +3418,27 @@
         <v>22500</v>
       </c>
       <c r="O43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" t="s">
         <v>129</v>
       </c>
-      <c r="C44" t="s">
-        <v>129</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>130</v>
-      </c>
-      <c r="E44" t="s">
-        <v>131</v>
       </c>
       <c r="F44" t="s">
         <v>18</v>
@@ -3479,25 +3468,25 @@
         <v>18900</v>
       </c>
       <c r="O44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="1" t="n"/>
       <c r="B45" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" t="s">
+        <v>131</v>
+      </c>
+      <c r="D45" t="s">
         <v>132</v>
       </c>
-      <c r="C45" t="s">
-        <v>132</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>133</v>
-      </c>
-      <c r="E45" t="s">
-        <v>134</v>
       </c>
       <c r="F45" t="s">
         <v>18</v>
@@ -3527,25 +3516,25 @@
         <v>17760</v>
       </c>
       <c r="O45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="1" t="n"/>
       <c r="B46" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" t="s">
         <v>135</v>
       </c>
-      <c r="C46" t="s">
-        <v>135</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>136</v>
-      </c>
-      <c r="E46" t="s">
-        <v>137</v>
       </c>
       <c r="F46" t="s">
         <v>18</v>
@@ -3575,25 +3564,25 @@
         <v>12500</v>
       </c>
       <c r="O46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="1" t="n"/>
       <c r="B47" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" t="s">
+        <v>137</v>
+      </c>
+      <c r="D47" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" t="s">
         <v>138</v>
-      </c>
-      <c r="C47" t="s">
-        <v>138</v>
-      </c>
-      <c r="D47" t="s">
-        <v>133</v>
-      </c>
-      <c r="E47" t="s">
-        <v>139</v>
       </c>
       <c r="F47" t="s">
         <v>18</v>
@@ -3623,25 +3612,25 @@
         <v>8000</v>
       </c>
       <c r="O47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="1" t="n"/>
       <c r="B48" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" t="s">
         <v>140</v>
       </c>
-      <c r="C48" t="s">
-        <v>140</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>141</v>
-      </c>
-      <c r="E48" t="s">
-        <v>142</v>
       </c>
       <c r="F48" t="s">
         <v>18</v>
@@ -3671,27 +3660,27 @@
         <v>6900</v>
       </c>
       <c r="O48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" t="s">
         <v>144</v>
       </c>
-      <c r="C49" t="s">
-        <v>144</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>145</v>
-      </c>
-      <c r="E49" t="s">
-        <v>146</v>
       </c>
       <c r="F49" t="s">
         <v>18</v>
@@ -3709,7 +3698,7 @@
         <v>53534.8</v>
       </c>
       <c r="K49" t="n">
-        <v>49178.30999999999</v>
+        <v>49178.31000000001</v>
       </c>
       <c r="L49" t="n">
         <v>125035.11</v>
@@ -3721,25 +3710,25 @@
         <v>763826.29</v>
       </c>
       <c r="O49" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="1" t="n"/>
       <c r="B50" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C50" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" t="s">
         <v>147</v>
-      </c>
-      <c r="C50" t="s">
-        <v>147</v>
-      </c>
-      <c r="D50" t="s">
-        <v>145</v>
-      </c>
-      <c r="E50" t="s">
-        <v>148</v>
       </c>
       <c r="F50" t="s">
         <v>18</v>
@@ -3769,25 +3758,25 @@
         <v>122758.59</v>
       </c>
       <c r="O50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:16">
       <c r="A51" s="1" t="n"/>
       <c r="B51" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" t="s">
+        <v>144</v>
+      </c>
+      <c r="E51" t="s">
         <v>149</v>
-      </c>
-      <c r="C51" t="s">
-        <v>149</v>
-      </c>
-      <c r="D51" t="s">
-        <v>145</v>
-      </c>
-      <c r="E51" t="s">
-        <v>150</v>
       </c>
       <c r="F51" t="s">
         <v>18</v>
@@ -3817,25 +3806,25 @@
         <v>79520</v>
       </c>
       <c r="O51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:16">
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" t="s">
         <v>151</v>
       </c>
-      <c r="C52" t="s">
-        <v>151</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>152</v>
-      </c>
-      <c r="E52" t="s">
-        <v>153</v>
       </c>
       <c r="F52" t="s">
         <v>18</v>
@@ -3865,25 +3854,25 @@
         <v>58878.05</v>
       </c>
       <c r="O52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:16">
       <c r="A53" s="1" t="n"/>
       <c r="B53" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" t="s">
+        <v>153</v>
+      </c>
+      <c r="D53" t="s">
+        <v>144</v>
+      </c>
+      <c r="E53" t="s">
         <v>154</v>
-      </c>
-      <c r="C53" t="s">
-        <v>154</v>
-      </c>
-      <c r="D53" t="s">
-        <v>145</v>
-      </c>
-      <c r="E53" t="s">
-        <v>155</v>
       </c>
       <c r="F53" t="s">
         <v>18</v>
@@ -3913,27 +3902,27 @@
         <v>41816.82</v>
       </c>
       <c r="O53" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:16">
       <c r="A54" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" t="s">
+        <v>156</v>
+      </c>
+      <c r="D54" t="s">
         <v>157</v>
       </c>
-      <c r="C54" t="s">
-        <v>157</v>
-      </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>158</v>
-      </c>
-      <c r="E54" t="s">
-        <v>159</v>
       </c>
       <c r="F54" t="s">
         <v>18</v>
@@ -3945,7 +3934,7 @@
         <v>21500</v>
       </c>
       <c r="I54" t="n">
-        <v>20000</v>
+        <v>20500</v>
       </c>
       <c r="J54" t="n">
         <v>400</v>
@@ -3960,28 +3949,28 @@
         <v>130.2</v>
       </c>
       <c r="N54" t="n">
-        <v>56901.38</v>
+        <v>57401.38</v>
       </c>
       <c r="O54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="1" t="n"/>
       <c r="B55" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55" t="s">
+        <v>159</v>
+      </c>
+      <c r="D55" t="s">
         <v>160</v>
       </c>
-      <c r="C55" t="s">
-        <v>160</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>161</v>
-      </c>
-      <c r="E55" t="s">
-        <v>162</v>
       </c>
       <c r="F55" t="s">
         <v>18</v>
@@ -4011,25 +4000,25 @@
         <v>38000</v>
       </c>
       <c r="O55" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P55" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:16">
       <c r="A56" s="1" t="n"/>
       <c r="B56" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C56" t="s">
+        <v>162</v>
+      </c>
+      <c r="D56" t="s">
         <v>163</v>
       </c>
-      <c r="C56" t="s">
-        <v>163</v>
-      </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>164</v>
-      </c>
-      <c r="E56" t="s">
-        <v>165</v>
       </c>
       <c r="F56" t="s">
         <v>18</v>
@@ -4059,25 +4048,25 @@
         <v>24454.72</v>
       </c>
       <c r="O56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P56" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:16">
       <c r="A57" s="1" t="n"/>
       <c r="B57" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C57" t="s">
+        <v>165</v>
+      </c>
+      <c r="D57" t="s">
+        <v>163</v>
+      </c>
+      <c r="E57" t="s">
         <v>166</v>
-      </c>
-      <c r="C57" t="s">
-        <v>166</v>
-      </c>
-      <c r="D57" t="s">
-        <v>164</v>
-      </c>
-      <c r="E57" t="s">
-        <v>167</v>
       </c>
       <c r="F57" t="s">
         <v>18</v>
@@ -4107,25 +4096,25 @@
         <v>14000</v>
       </c>
       <c r="O57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P57" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="1" t="n"/>
       <c r="B58" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C58" t="s">
+        <v>167</v>
+      </c>
+      <c r="D58" t="s">
+        <v>157</v>
+      </c>
+      <c r="E58" t="s">
         <v>168</v>
-      </c>
-      <c r="C58" t="s">
-        <v>168</v>
-      </c>
-      <c r="D58" t="s">
-        <v>158</v>
-      </c>
-      <c r="E58" t="s">
-        <v>169</v>
       </c>
       <c r="F58" t="s">
         <v>18</v>
@@ -4155,27 +4144,27 @@
         <v>5453</v>
       </c>
       <c r="O58" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P58" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="1:16">
       <c r="A59" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" t="s">
+        <v>170</v>
+      </c>
+      <c r="D59" t="s">
         <v>171</v>
       </c>
-      <c r="C59" t="s">
-        <v>171</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>172</v>
-      </c>
-      <c r="E59" t="s">
-        <v>173</v>
       </c>
       <c r="F59" t="s">
         <v>18</v>
@@ -4205,25 +4194,25 @@
         <v>53250</v>
       </c>
       <c r="O59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:16">
       <c r="A60" s="1" t="n"/>
       <c r="B60" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C60" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D60" t="s">
+        <v>171</v>
+      </c>
+      <c r="E60" t="s">
         <v>172</v>
-      </c>
-      <c r="E60" t="s">
-        <v>173</v>
       </c>
       <c r="F60" t="s">
         <v>18</v>
@@ -4253,25 +4242,25 @@
         <v>8000</v>
       </c>
       <c r="O60" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:16">
       <c r="A61" s="1" t="n"/>
       <c r="B61" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C61" t="s">
+        <v>174</v>
+      </c>
+      <c r="D61" t="s">
         <v>175</v>
       </c>
-      <c r="C61" t="s">
-        <v>175</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>176</v>
-      </c>
-      <c r="E61" t="s">
-        <v>177</v>
       </c>
       <c r="F61" t="s">
         <v>18</v>
@@ -4301,25 +4290,25 @@
         <v>3500</v>
       </c>
       <c r="O61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P61" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="1" t="n"/>
       <c r="B62" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C62" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D62" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E62" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F62" t="s">
         <v>18</v>
@@ -4331,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -4346,28 +4335,28 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="O62" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="1" t="n"/>
       <c r="B63" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C63" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D63" t="s">
+        <v>171</v>
+      </c>
+      <c r="E63" t="s">
         <v>172</v>
-      </c>
-      <c r="E63" t="s">
-        <v>173</v>
       </c>
       <c r="F63" t="s">
         <v>18</v>
@@ -4397,27 +4386,27 @@
         <v>2000</v>
       </c>
       <c r="O63" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64" t="s">
+        <v>180</v>
+      </c>
+      <c r="D64" t="s">
         <v>181</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="E64" t="s">
         <v>182</v>
-      </c>
-      <c r="C64" t="s">
-        <v>182</v>
-      </c>
-      <c r="D64" t="s">
-        <v>183</v>
-      </c>
-      <c r="E64" t="s">
-        <v>184</v>
       </c>
       <c r="F64" t="s">
         <v>18</v>
@@ -4447,27 +4436,27 @@
         <v>3089.8</v>
       </c>
       <c r="O64" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P64" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65" spans="1:16">
       <c r="A65" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C65" t="s">
+        <v>184</v>
+      </c>
+      <c r="D65" t="s">
         <v>185</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="E65" t="s">
         <v>186</v>
-      </c>
-      <c r="C65" t="s">
-        <v>186</v>
-      </c>
-      <c r="D65" t="s">
-        <v>187</v>
-      </c>
-      <c r="E65" t="s">
-        <v>188</v>
       </c>
       <c r="F65" t="s">
         <v>18</v>
@@ -4479,7 +4468,7 @@
         <v>207195.88</v>
       </c>
       <c r="I65" t="n">
-        <v>833324.7599999999</v>
+        <v>835484.76</v>
       </c>
       <c r="J65" t="n">
         <v>47697.14000000001</v>
@@ -4494,28 +4483,28 @@
         <v>2460.24</v>
       </c>
       <c r="N65" t="n">
-        <v>1333509.27</v>
+        <v>1335669.27</v>
       </c>
       <c r="O65" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P65" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" spans="1:16">
       <c r="A66" s="1" t="n"/>
       <c r="B66" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C66" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D66" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E66" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F66" t="s">
         <v>18</v>
@@ -4545,25 +4534,25 @@
         <v>374393.48</v>
       </c>
       <c r="O66" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P66" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:16">
       <c r="A67" s="1" t="n"/>
       <c r="B67" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C67" t="s">
+        <v>189</v>
+      </c>
+      <c r="D67" t="s">
+        <v>190</v>
+      </c>
+      <c r="E67" t="s">
         <v>191</v>
-      </c>
-      <c r="C67" t="s">
-        <v>191</v>
-      </c>
-      <c r="D67" t="s">
-        <v>192</v>
-      </c>
-      <c r="E67" t="s">
-        <v>193</v>
       </c>
       <c r="F67" t="s">
         <v>18</v>
@@ -4593,25 +4582,25 @@
         <v>234800</v>
       </c>
       <c r="O67" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="P67" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:16">
       <c r="A68" s="1" t="n"/>
       <c r="B68" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C68" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D68" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E68" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F68" t="s">
         <v>18</v>
@@ -4623,7 +4612,7 @@
         <v>6120</v>
       </c>
       <c r="I68" t="n">
-        <v>74356</v>
+        <v>83706</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
@@ -4638,28 +4627,28 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>80476</v>
+        <v>89826</v>
       </c>
       <c r="O68" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P68" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:16">
       <c r="A69" s="1" t="n"/>
       <c r="B69" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C69" t="s">
+        <v>194</v>
+      </c>
+      <c r="D69" t="s">
+        <v>195</v>
+      </c>
+      <c r="E69" t="s">
         <v>196</v>
-      </c>
-      <c r="C69" t="s">
-        <v>196</v>
-      </c>
-      <c r="D69" t="s">
-        <v>197</v>
-      </c>
-      <c r="E69" t="s">
-        <v>198</v>
       </c>
       <c r="F69" t="s">
         <v>18</v>
@@ -4671,7 +4660,7 @@
         <v>5000</v>
       </c>
       <c r="I69" t="n">
-        <v>69336</v>
+        <v>70136</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -4686,30 +4675,30 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>77246</v>
+        <v>78046</v>
       </c>
       <c r="O69" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P69" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:16">
       <c r="A70" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C70" t="s">
+        <v>198</v>
+      </c>
+      <c r="D70" t="s">
         <v>199</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="E70" t="s">
         <v>200</v>
-      </c>
-      <c r="C70" t="s">
-        <v>200</v>
-      </c>
-      <c r="D70" t="s">
-        <v>201</v>
-      </c>
-      <c r="E70" t="s">
-        <v>202</v>
       </c>
       <c r="F70" t="s">
         <v>18</v>
@@ -4739,25 +4728,25 @@
         <v>11250</v>
       </c>
       <c r="O70" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P70" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71" spans="1:16">
       <c r="A71" s="1" t="n"/>
       <c r="B71" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C71" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D71" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E71" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F71" t="s">
         <v>18</v>
@@ -4787,25 +4776,25 @@
         <v>10789.13</v>
       </c>
       <c r="O71" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P71" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="72" spans="1:16">
       <c r="A72" s="1" t="n"/>
       <c r="B72" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C72" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D72" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E72" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F72" t="s">
         <v>18</v>
@@ -4835,25 +4824,25 @@
         <v>7200</v>
       </c>
       <c r="O72" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P72" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="73" spans="1:16">
       <c r="A73" s="1" t="n"/>
       <c r="B73" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C73" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D73" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E73" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F73" t="s">
         <v>18</v>
@@ -4883,27 +4872,27 @@
         <v>2500</v>
       </c>
       <c r="O73" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P73" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:16">
       <c r="A74" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C74" t="s">
+        <v>207</v>
+      </c>
+      <c r="D74" t="s">
         <v>208</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="E74" t="s">
         <v>209</v>
-      </c>
-      <c r="C74" t="s">
-        <v>209</v>
-      </c>
-      <c r="D74" t="s">
-        <v>210</v>
-      </c>
-      <c r="E74" t="s">
-        <v>211</v>
       </c>
       <c r="F74" t="s">
         <v>18</v>
@@ -4933,26 +4922,26 @@
         <v>917191</v>
       </c>
       <c r="O74" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P74" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="75" spans="1:16">
       <c r="A75" s="1" t="n"/>
       <c r="B75" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C75" t="s">
+        <v>210</v>
+      </c>
+      <c r="D75" t="s">
+        <v>211</v>
+      </c>
+      <c r="E75" t="s">
         <v>212</v>
       </c>
-      <c r="C75" t="s">
-        <v>212</v>
-      </c>
-      <c r="D75" t="s">
-        <v>213</v>
-      </c>
-      <c r="E75" t="s">
-        <v>214</v>
-      </c>
       <c r="F75" t="s">
         <v>18</v>
       </c>
@@ -4963,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>34040</v>
+        <v>38100</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
@@ -4972,35 +4961,35 @@
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>2160</v>
+        <v>0</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>36300</v>
+        <v>38100</v>
       </c>
       <c r="O75" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P75" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="76" spans="1:16">
       <c r="A76" s="1" t="n"/>
       <c r="B76" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C76" t="s">
+        <v>213</v>
+      </c>
+      <c r="D76" t="s">
+        <v>214</v>
+      </c>
+      <c r="E76" t="s">
         <v>215</v>
       </c>
-      <c r="C76" t="s">
-        <v>215</v>
-      </c>
-      <c r="D76" t="s">
-        <v>213</v>
-      </c>
-      <c r="E76" t="s">
-        <v>216</v>
-      </c>
       <c r="F76" t="s">
         <v>18</v>
       </c>
@@ -5011,42 +5000,44 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>25659.85</v>
+        <v>34400</v>
       </c>
       <c r="J76" t="n">
-        <v>573.1700000000002</v>
+        <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>801.86</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>6670</v>
+        <v>0</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>33704.87</v>
+        <v>35120</v>
       </c>
       <c r="O76" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P76" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="77" spans="1:16">
       <c r="A77" s="1" t="n"/>
       <c r="B77" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C77" t="s">
+        <v>216</v>
+      </c>
+      <c r="D77" t="s">
+        <v>214</v>
+      </c>
+      <c r="E77" t="s">
         <v>217</v>
       </c>
-      <c r="C77" t="s">
-        <v>217</v>
-      </c>
-      <c r="D77" t="s">
-        <v>218</v>
-      </c>
-      <c r="E77" t="s"/>
       <c r="F77" t="s">
         <v>18</v>
       </c>
@@ -5057,44 +5048,44 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>20100</v>
+        <v>25659.85</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>573.1700000000002</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>801.86</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>6670</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>20100</v>
+        <v>33704.87</v>
       </c>
       <c r="O77" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P77" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="78" spans="1:16">
       <c r="A78" s="1" t="n"/>
       <c r="B78" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C78" t="s">
+        <v>218</v>
+      </c>
+      <c r="D78" t="s">
+        <v>214</v>
+      </c>
+      <c r="E78" t="s">
         <v>219</v>
       </c>
-      <c r="C78" t="s">
-        <v>219</v>
-      </c>
-      <c r="D78" t="s">
-        <v>213</v>
-      </c>
-      <c r="E78" t="s">
-        <v>220</v>
-      </c>
       <c r="F78" t="s">
         <v>18</v>
       </c>
@@ -5105,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>20000</v>
+        <v>29720</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
@@ -5114,36 +5105,36 @@
         <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>2160</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>20000</v>
+        <v>31980</v>
       </c>
       <c r="O78" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P78" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79" spans="1:16">
       <c r="A79" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" t="s">
+        <v>221</v>
+      </c>
+      <c r="D79" t="s">
         <v>222</v>
       </c>
-      <c r="C79" t="s">
-        <v>222</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>223</v>
-      </c>
-      <c r="E79" t="s">
-        <v>224</v>
       </c>
       <c r="F79" t="s">
         <v>18</v>
@@ -5173,25 +5164,25 @@
         <v>70800</v>
       </c>
       <c r="O79" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P79" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="1:16">
       <c r="A80" s="1" t="n"/>
       <c r="B80" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C80" t="s">
+        <v>224</v>
+      </c>
+      <c r="D80" t="s">
         <v>225</v>
       </c>
-      <c r="C80" t="s">
-        <v>225</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>226</v>
-      </c>
-      <c r="E80" t="s">
-        <v>227</v>
       </c>
       <c r="F80" t="s">
         <v>18</v>
@@ -5221,25 +5212,25 @@
         <v>40000</v>
       </c>
       <c r="O80" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P80" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="81" spans="1:16">
       <c r="A81" s="1" t="n"/>
       <c r="B81" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C81" t="s">
+        <v>227</v>
+      </c>
+      <c r="D81" t="s">
         <v>228</v>
       </c>
-      <c r="C81" t="s">
-        <v>228</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>229</v>
-      </c>
-      <c r="E81" t="s">
-        <v>230</v>
       </c>
       <c r="F81" t="s">
         <v>18</v>
@@ -5269,25 +5260,25 @@
         <v>37208.44</v>
       </c>
       <c r="O81" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P81" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="82" spans="1:16">
       <c r="A82" s="1" t="n"/>
       <c r="B82" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C82" t="s">
+        <v>230</v>
+      </c>
+      <c r="D82" t="s">
         <v>231</v>
       </c>
-      <c r="C82" t="s">
-        <v>231</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>232</v>
-      </c>
-      <c r="E82" t="s">
-        <v>233</v>
       </c>
       <c r="F82" t="s">
         <v>18</v>
@@ -5317,25 +5308,25 @@
         <v>22343.14</v>
       </c>
       <c r="O82" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P82" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="83" spans="1:16">
       <c r="A83" s="1" t="n"/>
       <c r="B83" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C83" t="s">
+        <v>233</v>
+      </c>
+      <c r="D83" t="s">
         <v>234</v>
       </c>
-      <c r="C83" t="s">
-        <v>234</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>235</v>
-      </c>
-      <c r="E83" t="s">
-        <v>236</v>
       </c>
       <c r="F83" t="s">
         <v>18</v>
@@ -5365,27 +5356,27 @@
         <v>14800</v>
       </c>
       <c r="O83" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P83" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="84" spans="1:16">
       <c r="A84" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" t="s">
+        <v>237</v>
+      </c>
+      <c r="D84" t="s">
         <v>238</v>
       </c>
-      <c r="C84" t="s">
-        <v>238</v>
-      </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>239</v>
-      </c>
-      <c r="E84" t="s">
-        <v>240</v>
       </c>
       <c r="F84" t="s">
         <v>18</v>
@@ -5415,25 +5406,25 @@
         <v>90834.02</v>
       </c>
       <c r="O84" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P84" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="1" t="n"/>
       <c r="B85" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C85" t="s">
+        <v>240</v>
+      </c>
+      <c r="D85" t="s">
         <v>241</v>
       </c>
-      <c r="C85" t="s">
-        <v>241</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>242</v>
-      </c>
-      <c r="E85" t="s">
-        <v>243</v>
       </c>
       <c r="F85" t="s">
         <v>18</v>
@@ -5463,25 +5454,25 @@
         <v>51150</v>
       </c>
       <c r="O85" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P85" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="86" spans="1:16">
       <c r="A86" s="1" t="n"/>
       <c r="B86" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C86" t="s">
+        <v>243</v>
+      </c>
+      <c r="D86" t="s">
         <v>244</v>
       </c>
-      <c r="C86" t="s">
-        <v>244</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>245</v>
-      </c>
-      <c r="E86" t="s">
-        <v>246</v>
       </c>
       <c r="F86" t="s">
         <v>18</v>
@@ -5511,25 +5502,25 @@
         <v>46521.9</v>
       </c>
       <c r="O86" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P86" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="87" spans="1:16">
       <c r="A87" s="1" t="n"/>
       <c r="B87" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C87" t="s">
+        <v>246</v>
+      </c>
+      <c r="D87" t="s">
         <v>247</v>
       </c>
-      <c r="C87" t="s">
-        <v>247</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>248</v>
-      </c>
-      <c r="E87" t="s">
-        <v>249</v>
       </c>
       <c r="F87" t="s">
         <v>18</v>
@@ -5559,25 +5550,25 @@
         <v>11000</v>
       </c>
       <c r="O87" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P87" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="88" spans="1:16">
       <c r="A88" s="1" t="n"/>
       <c r="B88" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C88" t="s">
+        <v>249</v>
+      </c>
+      <c r="D88" t="s">
+        <v>238</v>
+      </c>
+      <c r="E88" t="s">
         <v>250</v>
-      </c>
-      <c r="C88" t="s">
-        <v>250</v>
-      </c>
-      <c r="D88" t="s">
-        <v>239</v>
-      </c>
-      <c r="E88" t="s">
-        <v>251</v>
       </c>
       <c r="F88" t="s">
         <v>18</v>
@@ -5607,27 +5598,27 @@
         <v>9750</v>
       </c>
       <c r="O88" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P88" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="89" spans="1:16">
       <c r="A89" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" t="s">
+        <v>252</v>
+      </c>
+      <c r="D89" t="s">
         <v>253</v>
       </c>
-      <c r="C89" t="s">
-        <v>253</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>254</v>
-      </c>
-      <c r="E89" t="s">
-        <v>255</v>
       </c>
       <c r="F89" t="s">
         <v>18</v>
@@ -5639,7 +5630,7 @@
         <v>1514229.61</v>
       </c>
       <c r="I89" t="n">
-        <v>8359325.240000002</v>
+        <v>8359325.24</v>
       </c>
       <c r="J89" t="n">
         <v>378843.9</v>
@@ -5657,25 +5648,25 @@
         <v>10340145.9</v>
       </c>
       <c r="O89" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P89" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="90" spans="1:16">
       <c r="A90" s="1" t="n"/>
       <c r="B90" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C90" t="s">
+        <v>255</v>
+      </c>
+      <c r="D90" t="s">
         <v>256</v>
       </c>
-      <c r="C90" t="s">
-        <v>256</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>257</v>
-      </c>
-      <c r="E90" t="s">
-        <v>258</v>
       </c>
       <c r="F90" t="s">
         <v>18</v>
@@ -5705,26 +5696,26 @@
         <v>1900172.52</v>
       </c>
       <c r="O90" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P90" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="91" spans="1:16">
       <c r="A91" s="1" t="n"/>
       <c r="B91" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C91" t="s">
+        <v>258</v>
+      </c>
+      <c r="D91" t="s">
         <v>259</v>
       </c>
-      <c r="C91" t="s">
-        <v>259</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="E91" t="s">
         <v>260</v>
       </c>
-      <c r="E91" t="s">
-        <v>261</v>
-      </c>
       <c r="F91" t="s">
         <v>18</v>
       </c>
@@ -5732,10 +5723,10 @@
         <v>2017</v>
       </c>
       <c r="H91" t="n">
-        <v>300730</v>
+        <v>287730</v>
       </c>
       <c r="I91" t="n">
-        <v>289056.83</v>
+        <v>275484.21</v>
       </c>
       <c r="J91" t="n">
         <v>4259.08</v>
@@ -5750,28 +5741,28 @@
         <v>2325</v>
       </c>
       <c r="N91" t="n">
-        <v>672722.72</v>
+        <v>646150.1</v>
       </c>
       <c r="O91" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P91" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="92" spans="1:16">
       <c r="A92" s="1" t="n"/>
       <c r="B92" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C92" t="s">
+        <v>261</v>
+      </c>
+      <c r="D92" t="s">
+        <v>256</v>
+      </c>
+      <c r="E92" t="s">
         <v>262</v>
-      </c>
-      <c r="C92" t="s">
-        <v>262</v>
-      </c>
-      <c r="D92" t="s">
-        <v>257</v>
-      </c>
-      <c r="E92" t="s">
-        <v>263</v>
       </c>
       <c r="F92" t="s">
         <v>18</v>
@@ -5801,25 +5792,25 @@
         <v>627014.5</v>
       </c>
       <c r="O92" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P92" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="93" spans="1:16">
       <c r="A93" s="1" t="n"/>
       <c r="B93" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C93" t="s">
+        <v>263</v>
+      </c>
+      <c r="D93" t="s">
+        <v>256</v>
+      </c>
+      <c r="E93" t="s">
         <v>264</v>
-      </c>
-      <c r="C93" t="s">
-        <v>264</v>
-      </c>
-      <c r="D93" t="s">
-        <v>257</v>
-      </c>
-      <c r="E93" t="s">
-        <v>265</v>
       </c>
       <c r="F93" t="s">
         <v>18</v>
@@ -5849,27 +5840,27 @@
         <v>325281.92</v>
       </c>
       <c r="O93" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P93" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="94" spans="1:16">
       <c r="A94" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="C94" t="s">
+        <v>266</v>
+      </c>
+      <c r="D94" t="s">
         <v>267</v>
       </c>
-      <c r="C94" t="s">
-        <v>267</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>268</v>
-      </c>
-      <c r="E94" t="s">
-        <v>269</v>
       </c>
       <c r="F94" t="s">
         <v>18</v>
@@ -5899,25 +5890,25 @@
         <v>7471.67</v>
       </c>
       <c r="O94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P94" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="95" spans="1:16">
       <c r="A95" s="1" t="n"/>
       <c r="B95" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C95" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D95" t="s">
+        <v>267</v>
+      </c>
+      <c r="E95" t="s">
         <v>268</v>
-      </c>
-      <c r="E95" t="s">
-        <v>269</v>
       </c>
       <c r="F95" t="s">
         <v>18</v>
@@ -5947,27 +5938,27 @@
         <v>4000</v>
       </c>
       <c r="O95" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P95" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="96" spans="1:16">
       <c r="A96" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" t="s">
+        <v>271</v>
+      </c>
+      <c r="D96" t="s">
         <v>272</v>
       </c>
-      <c r="C96" t="s">
-        <v>272</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>273</v>
-      </c>
-      <c r="E96" t="s">
-        <v>274</v>
       </c>
       <c r="F96" t="s">
         <v>18</v>
@@ -5997,25 +5988,25 @@
         <v>2809678.77</v>
       </c>
       <c r="O96" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P96" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="97" spans="1:16">
       <c r="A97" s="1" t="n"/>
       <c r="B97" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C97" t="s">
+        <v>274</v>
+      </c>
+      <c r="D97" t="s">
+        <v>272</v>
+      </c>
+      <c r="E97" t="s">
         <v>275</v>
-      </c>
-      <c r="C97" t="s">
-        <v>275</v>
-      </c>
-      <c r="D97" t="s">
-        <v>273</v>
-      </c>
-      <c r="E97" t="s">
-        <v>276</v>
       </c>
       <c r="F97" t="s">
         <v>18</v>
@@ -6027,7 +6018,7 @@
         <v>347724.98</v>
       </c>
       <c r="I97" t="n">
-        <v>1290719.13</v>
+        <v>1287067.13</v>
       </c>
       <c r="J97" t="n">
         <v>76374.51999999999</v>
@@ -6036,34 +6027,34 @@
         <v>248588.59</v>
       </c>
       <c r="L97" t="n">
-        <v>487181.47</v>
+        <v>488181.47</v>
       </c>
       <c r="M97" t="n">
-        <v>13610.5</v>
+        <v>14377.5</v>
       </c>
       <c r="N97" t="n">
-        <v>2469333.07</v>
+        <v>2467448.07</v>
       </c>
       <c r="O97" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P97" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="98" spans="1:16">
       <c r="A98" s="1" t="n"/>
       <c r="B98" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C98" t="s">
+        <v>276</v>
+      </c>
+      <c r="D98" t="s">
         <v>277</v>
       </c>
-      <c r="C98" t="s">
-        <v>277</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="E98" t="s">
         <v>278</v>
-      </c>
-      <c r="E98" t="s">
-        <v>279</v>
       </c>
       <c r="F98" t="s">
         <v>18</v>
@@ -6093,25 +6084,25 @@
         <v>967093.8</v>
       </c>
       <c r="O98" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P98" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="99" spans="1:16">
       <c r="A99" s="1" t="n"/>
       <c r="B99" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C99" t="s">
+        <v>279</v>
+      </c>
+      <c r="D99" t="s">
         <v>280</v>
       </c>
-      <c r="C99" t="s">
-        <v>280</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>281</v>
-      </c>
-      <c r="E99" t="s">
-        <v>282</v>
       </c>
       <c r="F99" t="s">
         <v>18</v>
@@ -6141,25 +6132,25 @@
         <v>258101.68</v>
       </c>
       <c r="O99" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P99" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="100" spans="1:16">
       <c r="A100" s="1" t="n"/>
       <c r="B100" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C100" t="s">
+        <v>282</v>
+      </c>
+      <c r="D100" t="s">
+        <v>272</v>
+      </c>
+      <c r="E100" t="s">
         <v>283</v>
-      </c>
-      <c r="C100" t="s">
-        <v>283</v>
-      </c>
-      <c r="D100" t="s">
-        <v>273</v>
-      </c>
-      <c r="E100" t="s">
-        <v>284</v>
       </c>
       <c r="F100" t="s">
         <v>18</v>
@@ -6189,27 +6180,27 @@
         <v>120120.8</v>
       </c>
       <c r="O100" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P100" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="101" spans="1:16">
       <c r="A101" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="C101" t="s">
+        <v>285</v>
+      </c>
+      <c r="D101" t="s">
         <v>286</v>
       </c>
-      <c r="C101" t="s">
-        <v>286</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>287</v>
-      </c>
-      <c r="E101" t="s">
-        <v>288</v>
       </c>
       <c r="F101" t="s">
         <v>18</v>
@@ -6239,26 +6230,26 @@
         <v>165636.02</v>
       </c>
       <c r="O101" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P101" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="102" spans="1:16">
       <c r="A102" s="1" t="n"/>
       <c r="B102" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C102" t="s">
+        <v>288</v>
+      </c>
+      <c r="D102" t="s">
         <v>289</v>
       </c>
-      <c r="C102" t="s">
-        <v>289</v>
-      </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
         <v>290</v>
       </c>
-      <c r="E102" t="s">
-        <v>291</v>
-      </c>
       <c r="F102" t="s">
         <v>18</v>
       </c>
@@ -6266,7 +6257,7 @@
         <v>2017</v>
       </c>
       <c r="H102" t="n">
-        <v>2364</v>
+        <v>4744</v>
       </c>
       <c r="I102" t="n">
         <v>86383.72</v>
@@ -6284,28 +6275,28 @@
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>135334.44</v>
+        <v>137714.44</v>
       </c>
       <c r="O102" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P102" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="103" spans="1:16">
       <c r="A103" s="1" t="n"/>
       <c r="B103" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C103" t="s">
+        <v>291</v>
+      </c>
+      <c r="D103" t="s">
+        <v>289</v>
+      </c>
+      <c r="E103" t="s">
         <v>292</v>
-      </c>
-      <c r="C103" t="s">
-        <v>292</v>
-      </c>
-      <c r="D103" t="s">
-        <v>290</v>
-      </c>
-      <c r="E103" t="s">
-        <v>293</v>
       </c>
       <c r="F103" t="s">
         <v>18</v>
@@ -6335,25 +6326,25 @@
         <v>35846.7</v>
       </c>
       <c r="O103" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P103" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="104" spans="1:16">
       <c r="A104" s="1" t="n"/>
       <c r="B104" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C104" t="s">
+        <v>293</v>
+      </c>
+      <c r="D104" t="s">
         <v>294</v>
       </c>
-      <c r="C104" t="s">
-        <v>294</v>
-      </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
         <v>295</v>
-      </c>
-      <c r="E104" t="s">
-        <v>296</v>
       </c>
       <c r="F104" t="s">
         <v>18</v>
@@ -6383,25 +6374,25 @@
         <v>10000</v>
       </c>
       <c r="O104" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P104" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="105" spans="1:16">
       <c r="A105" s="1" t="n"/>
       <c r="B105" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C105" t="s">
+        <v>296</v>
+      </c>
+      <c r="D105" t="s">
         <v>297</v>
       </c>
-      <c r="C105" t="s">
-        <v>297</v>
-      </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>298</v>
-      </c>
-      <c r="E105" t="s">
-        <v>299</v>
       </c>
       <c r="F105" t="s">
         <v>18</v>
@@ -6413,7 +6404,7 @@
         <v>2000</v>
       </c>
       <c r="I105" t="n">
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="J105" t="n">
         <v>0</v>
@@ -6428,30 +6419,30 @@
         <v>0</v>
       </c>
       <c r="N105" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="O105" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P105" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="106" spans="1:16">
       <c r="A106" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" t="s">
+        <v>300</v>
+      </c>
+      <c r="D106" t="s">
         <v>301</v>
       </c>
-      <c r="C106" t="s">
-        <v>301</v>
-      </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>302</v>
-      </c>
-      <c r="E106" t="s">
-        <v>303</v>
       </c>
       <c r="F106" t="s">
         <v>18</v>
@@ -6481,25 +6472,25 @@
         <v>702400.8</v>
       </c>
       <c r="O106" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P106" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="107" spans="1:16">
       <c r="A107" s="1" t="n"/>
       <c r="B107" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C107" t="s">
+        <v>303</v>
+      </c>
+      <c r="D107" t="s">
         <v>304</v>
       </c>
-      <c r="C107" t="s">
-        <v>304</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>305</v>
-      </c>
-      <c r="E107" t="s">
-        <v>306</v>
       </c>
       <c r="F107" t="s">
         <v>18</v>
@@ -6511,7 +6502,7 @@
         <v>6480</v>
       </c>
       <c r="I107" t="n">
-        <v>134381.8</v>
+        <v>71000</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
@@ -6526,28 +6517,28 @@
         <v>0</v>
       </c>
       <c r="N107" t="n">
-        <v>152861.8</v>
+        <v>89480</v>
       </c>
       <c r="O107" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P107" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="108" spans="1:16">
       <c r="A108" s="1" t="n"/>
       <c r="B108" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C108" t="s">
+        <v>306</v>
+      </c>
+      <c r="D108" t="s">
+        <v>304</v>
+      </c>
+      <c r="E108" t="s">
         <v>307</v>
-      </c>
-      <c r="C108" t="s">
-        <v>307</v>
-      </c>
-      <c r="D108" t="s">
-        <v>305</v>
-      </c>
-      <c r="E108" t="s">
-        <v>308</v>
       </c>
       <c r="F108" t="s">
         <v>18</v>
@@ -6577,73 +6568,73 @@
         <v>86053</v>
       </c>
       <c r="O108" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P108" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="109" spans="1:16">
       <c r="A109" s="1" t="n"/>
       <c r="B109" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C109" t="s">
+        <v>308</v>
+      </c>
+      <c r="D109" t="s">
         <v>309</v>
       </c>
-      <c r="C109" t="s">
+      <c r="E109" t="s">
+        <v>310</v>
+      </c>
+      <c r="F109" t="s">
+        <v>18</v>
+      </c>
+      <c r="G109" t="n">
+        <v>2017</v>
+      </c>
+      <c r="H109" t="n">
+        <v>59000</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>59000</v>
+      </c>
+      <c r="O109" t="s">
         <v>309</v>
       </c>
-      <c r="D109" t="s">
-        <v>310</v>
-      </c>
-      <c r="E109" t="s">
-        <v>311</v>
-      </c>
-      <c r="F109" t="s">
-        <v>18</v>
-      </c>
-      <c r="G109" t="n">
-        <v>2017</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>60000</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0</v>
-      </c>
-      <c r="L109" t="n">
-        <v>0</v>
-      </c>
-      <c r="M109" t="n">
-        <v>0</v>
-      </c>
-      <c r="N109" t="n">
-        <v>60000</v>
-      </c>
-      <c r="O109" t="s">
-        <v>310</v>
-      </c>
       <c r="P109" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="110" spans="1:16">
       <c r="A110" s="1" t="n"/>
       <c r="B110" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C110" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D110" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E110" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F110" t="s">
         <v>18</v>
@@ -6652,10 +6643,10 @@
         <v>2017</v>
       </c>
       <c r="H110" t="n">
-        <v>59000</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>45011.8</v>
       </c>
       <c r="J110" t="n">
         <v>0</v>
@@ -6670,31 +6661,31 @@
         <v>0</v>
       </c>
       <c r="N110" t="n">
-        <v>59000</v>
+        <v>45011.8</v>
       </c>
       <c r="O110" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="P110" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="111" spans="1:16">
       <c r="A111" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C111" t="s">
+        <v>313</v>
+      </c>
+      <c r="D111" t="s">
         <v>314</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="E111" t="s">
         <v>315</v>
       </c>
-      <c r="C111" t="s">
-        <v>315</v>
-      </c>
-      <c r="D111" t="s">
-        <v>316</v>
-      </c>
-      <c r="E111" t="s">
-        <v>317</v>
-      </c>
       <c r="F111" t="s">
         <v>18</v>
       </c>
@@ -6702,46 +6693,46 @@
         <v>2017</v>
       </c>
       <c r="H111" t="n">
-        <v>1075008.96</v>
+        <v>769739.9400000002</v>
       </c>
       <c r="I111" t="n">
-        <v>1365716.78</v>
+        <v>1183276.78</v>
       </c>
       <c r="J111" t="n">
-        <v>33740.37</v>
+        <v>33390.37</v>
       </c>
       <c r="K111" t="n">
-        <v>103335.83</v>
+        <v>103879.93</v>
       </c>
       <c r="L111" t="n">
-        <v>176690</v>
+        <v>81995</v>
       </c>
       <c r="M111" t="n">
-        <v>4822.16</v>
+        <v>1540.9</v>
       </c>
       <c r="N111" t="n">
-        <v>2759315</v>
+        <v>2173823.82</v>
       </c>
       <c r="O111" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P111" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="112" spans="1:16">
       <c r="A112" s="1" t="n"/>
       <c r="B112" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C112" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D112" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E112" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F112" t="s">
         <v>18</v>
@@ -6750,46 +6741,46 @@
         <v>2017</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>190541.81</v>
       </c>
       <c r="I112" t="n">
-        <v>1319201</v>
+        <v>506301.55</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
+        <v>38500</v>
       </c>
       <c r="K112" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L112" t="n">
-        <v>10000</v>
+        <v>30694</v>
       </c>
       <c r="M112" t="n">
         <v>0</v>
       </c>
       <c r="N112" t="n">
-        <v>1329201</v>
+        <v>776037.3600000001</v>
       </c>
       <c r="O112" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="P112" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="113" spans="1:16">
       <c r="A113" s="1" t="n"/>
       <c r="B113" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C113" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D113" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E113" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F113" t="s">
         <v>18</v>
@@ -6819,25 +6810,25 @@
         <v>761451.79</v>
       </c>
       <c r="O113" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P113" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="114" spans="1:16">
       <c r="A114" s="1" t="n"/>
       <c r="B114" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C114" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D114" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E114" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F114" t="s">
         <v>18</v>
@@ -6867,25 +6858,25 @@
         <v>644704</v>
       </c>
       <c r="O114" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P114" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="115" spans="1:16">
       <c r="A115" s="1" t="n"/>
       <c r="B115" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C115" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D115" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E115" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F115" t="s">
         <v>18</v>
@@ -6915,10 +6906,10 @@
         <v>628211</v>
       </c>
       <c r="O115" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="P115" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
